--- a/public/model_telechargement_note.xlsx
+++ b/public/model_telechargement_note.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Tel</t>
   </si>
@@ -47,34 +47,37 @@
     <t>Adress</t>
   </si>
   <si>
-    <t>Classe: NS1</t>
-  </si>
-  <si>
     <t>Professeur:</t>
   </si>
   <si>
-    <t>Gessifrad</t>
-  </si>
-  <si>
-    <t>Lestomac</t>
-  </si>
-  <si>
-    <t>Dormevil</t>
-  </si>
-  <si>
-    <t>Edvard</t>
-  </si>
-  <si>
-    <t>Pierre</t>
-  </si>
-  <si>
-    <t>Wislet</t>
-  </si>
-  <si>
-    <t>Cours: anglais</t>
-  </si>
-  <si>
     <t>N.B: Le format de ce document doit etre respecté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cours: </t>
+  </si>
+  <si>
+    <t>anglais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classe: </t>
+  </si>
+  <si>
+    <t>NS1</t>
+  </si>
+  <si>
+    <t>Liste des Notes</t>
+  </si>
+  <si>
+    <t>Jean Pierre</t>
+  </si>
+  <si>
+    <t>Lucie</t>
+  </si>
+  <si>
+    <t>Jeranson</t>
+  </si>
+  <si>
+    <t>Josephe</t>
   </si>
 </sst>
 </file>
@@ -84,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0;[Red]0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +138,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -229,7 +239,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -243,10 +253,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -257,6 +264,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -539,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -558,52 +571,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="4"/>
       <c r="F6" s="5" t="s">
@@ -615,387 +631,65 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C11" s="7" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" ht="22.8" x14ac:dyDescent="0.35">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="10">
-        <v>30.5</v>
-      </c>
-      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C13" s="9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13" s="10">
-        <v>70.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="10"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="10"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="10"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="10"/>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="10"/>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="10"/>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10"/>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10"/>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10"/>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="10"/>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="10"/>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="10"/>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="10"/>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="10"/>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="10"/>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="10"/>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="10"/>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="10"/>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="10"/>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="10"/>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="10"/>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="10"/>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="10"/>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="E70" s="10"/>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="10"/>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="10"/>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="10"/>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="10"/>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="10"/>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="10"/>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="10"/>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="10"/>
+        <v>30.5</v>
+      </c>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
